--- a/output/Total_time_range_data/四川省/广元市_学习考察.xlsx
+++ b/output/Total_time_range_data/四川省/广元市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1086 +436,1190 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>233</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>泸州市考察组来广元考察学习铁路枢纽建设</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2018-05-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://gygjtlg.cn/new/show/9ed506c3ee1b402885f2ef3cef48eb33.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['2018年5月4日，泸州市交通运输局党组书记、局长、市高速公路和高速铁路建设协调领导小组办公室主任沈昭平一行到广元考察学习广元铁路枢纽建设。广元市重点办、广元市交通运输局等有关部门参加考察。', '考察期间，泸州市考察组一行参观了广元交通建设，并召开了学习考察座谈会。广元市重点办主任王友仁向泸州市考察组重点介绍了近年来广元铁路建设发展、广元铁路枢纽总图规划等情况，广元市交通运输局党组书记、局长田刚富介绍了广元公路交通建设发展情况，泸州市考察组介绍了泸州市高速铁路、高速公路建设有关情况，双方并深入交流了交通建设的经验。双方表示，今后将进一步加强两地高速铁路和高速公路建设方面的交流合作，促进两市交通建设再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>233</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>南充市考察组来广元学习考察医保工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-07-13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://ybj.cngy.gov.cn/new/show/4675c472-d48b-4253-8ea0-4ea2ea752cb2.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['7月12日，南充市政府副市长欧阳梅带领医保、财政、审计、卫健等部门负责人考察广元医保基金市级统筹工作。市委常委、组织部部长毛端喜，市人大常委会副主任伏玉琼分段陪同考察调研。', '上午，考察组实地考察调研广元市市本级医保经办服务大厅，重点了解大厅标准化规范化建设、首批全国医保经办示范窗口创建、四级服务体系建设、市区同城一体化发展等情况。下午，召开广元—南充医疗保障基金市级统筹座谈会，与会人员观看广元市四级医保服务体系建设专题片《凿通“最后一米”》，围绕基本医保市级统筹、基金预算管理、超预算总额处理等相关工作开展深入交流讨论，气氛热烈而温馨。', '欧阳梅高度评价广元市委、市政府对医保工作的坚强领导，充分肯定广元市医保工作所取得的显著成绩。表示不虚此行、学到真经，希望两地继续加强联系、互相学习借鉴，共同推动医保事业协调发展。', '毛端喜指出，南充广元同处川东北经济区，南充各项工作都是广元学习的榜样。希望两地保持长期合作关系，持续深化基金管理、监管联动、待遇协同、服务通办等方面的合作协同，共同增进民生福祉。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>233</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>龙兆学带队赴文县考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.cnqc.gov.cn/newdetail.aspx?id=20230530103731585</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['日，县委书记龙兆学带领县党政代表团赴文县考察学习农旅融合、产业发展、乡村振兴等方面工作，与文县就进一步深化区域协同发展，推动两地在文青剑阆高速公路建设、旅游发展、商贸流通等领域开展深层次、全方位交流合作达成了进一步共识。县人大常委会主任张国辉，县政协主席杨政国，县委副书记方维，县政府副县长赵彬参加考察学习。', '文县县委书记文元旦，县人大常委会主任刘永成，县政协主席赵爱平，县委副书记贾爱会，县委常委、副县长罗达一同考察。', '龙兆学一行先后来到文县中庙镇新材料产业园、文县碧口镇石龙沟流域茶旅融合康养产业园、尚德镇文县即墨现代农业产业园等地，通过听取汇报、互动交流、现场观摩等方式，实地考察学习了文县在乡村旅游、产业培育及产业园建设等方面的先进经验、成功做法。', '在随后召开的座谈会上，双方相互介绍了基本县情和经济社会发展情况，并就加快推进文青剑阆高速公路建设和进一步加强互鉴互学、深化交流合作进行了热烈讨论、友好交流。', '龙兆学代表县委、县政府对文县的精心安排和热情接待表示衷心感谢，他说，文县发展思路清晰，发展势头强劲，干部队伍素质高干劲足，人民生活安居乐业，经济社会发展的良好成效和美好前景让人印象深刻、很受振奋、深受启发，此次考察收获颇丰，我们将把好经验、好做法、好理念带回去，将', '“真经”融入到推动青川振兴发展的具体实践中去。他表示，青川和文县地缘相邻、产业相似、人文相亲，有着很好的合作基础，衷心期盼两地以文青剑阆高速公路建设为契机，进一步深化区域协同发展机制，加大行政、技术等方面支持力度，在更宽领域、更大范围、更深层次开展合作交流，合力拉动经济腾飞，共享区域红利、发展红利、政策红利、生态红利，共同谱写两县区域协同发展新篇章。', '文元旦对我县代表团一行表示热烈欢迎。他表示，近年来，两地密切协作、互通有无，在扩大交流、深化合作上取得了长足进步，形成了优势互补、相互支持的合作共赢关系，有效促进了两县经济共同发展和社会和谐进步。希望通过这次考察和座谈交流，探索建立更加紧密高效的联席会议合作机制、更加系统全面的文化旅游合作机制、更加互补互助的产业发展合作机制、更加灵活机动的应急联防合作机制，结合两地各自实际，扬长补短，优势互补，推动更多领域深度合作，实现互惠共赢发展，共同推动两地事业迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>233</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市经信局赴资阳市考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2020-12-27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://jxj.cngy.gov.cn/new/show/20201227134454277.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['考察组一行先后参观了资阳市规划展示馆、中车资阳机车公司总装车间、临空经济区产业孵化中心、现代商用汽车总装车间、中国牙谷招商中心、高新区科创中心等企业、园区、项目。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>233</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>罗云率青川县党政考察团赴浙江省考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2018-10-08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://jjhzj.cngy.gov.cn/new/show/d5d050ffef6647ddbf222ab31e17caa5.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['9月26日至29日，县委书记罗云率青川县党政考察团赴浙江省湖州市吴兴区、安吉县，与时任浙江省援建指挥部指挥长、浙江省住房和城乡建设厅原厅长、浙江省人大环境与资源保护委员会副主任委员谈月明及浙江省发改委、省对口支援办、对口帮扶处相关负责同志交流对接东西部扶贫协作工作；考察学习，重点学习吴兴区、安吉县在实施乡村振兴战略、美丽乡村建设、乡村旅游、特色小镇建设、农旅融合发展、基层党建、医疗康养、教育教学等方面的新思想、新理念、新举措；参观考察当地企业，与企业家们深入交流，谈合作共谋发展。', '考察团一行先后参观考察了吴兴区美欣达集团、老恒和酿造有限公司、丝绸小镇、东尼电子股份有限公司、中国童装城、城市党建综合体、德泰恒大药房、湖师附小教育集团、原乡小镇、谷堆乡创、慧心谷，安吉县天荒坪镇余村、蔓塘里自然村、溪龙乡黄杜村。', '考察中，大家一路听、一路看、一路议、一路比，耳目一新，收获满满，感慨连连。四天紧凑的行程，青川县党政考察团带着问题，每到一处都热烈地讨论和交流着心得体会，就“他山之石”如何在青川落地生根提出自己的看法和思路。通过考察学习，考察团所有成员一致表示，通过考察，解放了思想，转变了观念，找到了差距，坚定了信心。大家一致认为，这次考察是一次解放思想之旅、创新对标之旅、提升能力之旅。回到青川将认真借鉴浙江省吴兴区、安吉县的成功发展经验，努力把考察成果转化为推动青川绿色发展、转型发展的强劲动力，推动青川乡村振兴、特色小镇、美丽乡村、全域旅游等向纵深发展，为推进“三大目标”和中国生态康养旅游名县建设作出积极贡献，把青川建设得更加美好，让青川人民生活得更加幸福。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>233</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>刘襄渝率队赴我区考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2019-10-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://jjhzj.cngy.gov.cn/new/show/3e14e8cb0e38422694042af9454eb95b.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['6月14日，利州区委书记刘襄渝率队赴广元经开区考察学习项目投资、产业发展等工作。广元经开区党工委书记吴勇，党工委副书记、管委会主任罗凌云陪同考察。', '考察组一行先后来到了广元经开区劳特巴赫精酿啤酒在建项目、川陕甘国际农产品(物流)批发交易中心在建项目、林丰铝电项目、瑞昊微电子公司、娃哈哈公司等地，实地考察,现场体验,对标学习。', '劳特巴赫精酿啤酒项目是近年来广元经开区招商引资的又一力作。该项目去年5月开工建设，经过建设者们一年的奋战，一个年产20万吨劳特巴赫精酿啤酒项目已基本建成，预计在今年7月前全面竣工，创造了令人惊叹的“经开区速度”。大家表示，广元经开区抓项目尤其是大项目建设，敢想、敢闯、敢干的劲头和作风，值得认真学习。', '取经之行，深受震撼。广元经开区坚持产业集群化、资源集约化、环境和谐化、服务专业化的发展思路，在重点项目建设上的高起点、大投入，在经济社会发展中探索出的成功经验和做法,给考察组成员留下了深刻印象和启迪。一路看,一路思，大家纷纷表示，既认识到了差距,感受到了压力,也增强了干事创业的责任感,增强了推进发展的信心和决心。', '考察中，吴勇向考察组介绍了广元经开区的基本概况以及园区企业建设发展等情况，并希望双方进一步加强交流与合作，特别是在产业发展、基础设施建设等方面加强联系合作，推动经济社会发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>233</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>资阳市临空经济区考察团来我县考察学习</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2020-09-25</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.cnqc.gov.cn/newdetail.aspx?id=20200930094227028</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['9月24日，资阳市临空经济区党工委副书记李旭带领区（县）考察团来我县考察学习农村集体三资管理平台试点建设，县委副书记李彦江,县委办副主任谭光堂，县农业局党组成员、副局长杨芳丽陪同考察。', '对我县在推进三资管理平台建设工作中取得的成绩给予了高度评价。考察团一致认为，我县建立的', '“五个一”工作机制，值得学习推广。双方表示，今后要加强交流，相互学习借鉴，共同推动农村集体三资监督管理工作。（农业农村局 杨尧）']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>233</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>青川县考察团来苍考察学习增减挂钩工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2019-04-12</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.cncx.gov.cn/news/show/20190412164909553.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['4月9日，青川县人民政府考察团到我县考察学习城乡建设用地增减挂钩工作。县政协副主席谭守彬，县自然资源局局长陶书奎参加相关活动。', '考察团先后参观五龙镇增减挂钩项目及双树村磨盘石安置点、龙王镇增减挂钩项目及友谊村安置点。在随后召开的座谈会上，县自然资源局负责人结合我县城乡建设用地增减挂钩工作开展的具体情况，向考察团详细介绍了我县增减挂钩项目实施流程、措施及相关经验；双方自然资源、住建、财政等部门就项目实施过程中融资、技术、安置点选址等方面遇到的困难和采取的措施进行了广泛深入的交流。考察团表示，我县高度重视增减挂钩项目工作，抓手有力，相关部门协调配合、各司其职、各尽其责，工作成绩走在全市前列，希望双方能继续加强联系，相互学习借鉴经验，促进双方共同发展，共同提高。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>233</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>段菲带队赴利州区学习考察</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-03-10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.cnqc.gov.cn/newdetail.aspx?id=20220314151623564</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['3月9日，青川县人民政府副县长段菲带队前往广元市利州区学习考察城乡社区治理试点建设、政府购买社会救助服务和社会工作，利州区委常委、宣传部长李波，区政府副区长孙玉娟等陪同参访。', '上，学习考察组观看了利州区城乡社区治理宣传片，利州区民政局分管领导分别就社区治理、社会工作体系建设、政府购买社会救助服务、养老服务、机关党建等工作情况介绍了经验。', '段菲指出，利州区为我们提供了很好的学习教材及样板，此次学习参观受益匪浅，拓宽了工作思路。利州区在基层治理创建、养老服务、社区治理、婚姻登记等方面的先进经验做法得到省市充分肯定，值得我们学习借鉴。青川要结合自身实际，把好的经验和做法带回去，积极探索符合青川特色的基层社会治理创新工作品牌和经验做法，立即启动基层社会治理“五社”联动试点建设，为全县基层治理做好示范引领。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>233</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>考察学习拓思路助力振兴谋发展</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.cnzh.gov.cn/news/detail/20230228170849102.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区经验做法，进一步优化红岩镇传统村落集中连片保护利用产业结构，巩固拓展脱贫攻坚成果同乡村振兴有效衔接，2月26日，红岩镇党委书记蒋清松带队赴朝天区两河口镇老林村、两河口村实地考察学习传统村落保护工作先进经验。', '考察组先后参观学习了老林村家风家训馆、两河村史馆，深入了解如何在村史文化的传承中充分发掘乡村传统优秀文化的深厚底蕴与内在价值，进一步拓展思路，对通过党建引领，唤醒乡村文化资源，因地制宜发展部分村史馆、乡村旅游等特色产业集聚了智慧和力量。', '下一步，红岩镇将在相关部门的关心指导下，吸收借鉴先进地区经验做法，取长补短、学以致用，凝心聚力，找准工作发力点和突破点，打造美丽宜居港镇，走稳走好极具红岩特色的乡村振兴之路。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>233</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>龙兆学带队赴武都区考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.cnqc.gov.cn/newdetail.aspx?id=20230530103929647</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['5月26日，市政府副市长、县委书记龙兆学带领县党政代表团赴武都区考察学习，并就进一步深化区域协同发展进行了座谈交流。县人大常委会主任张国辉，县政协主席杨政国，县委副书记方维，县政府副县长赵彬参加考察学习。', '陇南市委常委、武都区委书记肖庆康，区委副书记、政府区长张立平，区领导苏浩、牛军平、李梅、车翔、李金生、冯志强等出席活动。', '龙兆学一行先后来到武都区坪垭乡易地扶贫搬迁点、吉石坝东盛物流园、万象景区项目建设现场、桔柑镇贺家坪油橄榄基地等地，通过实地走访、察看交流等方式，考察学习了武都区在特色产业、文旅康养、商贸物流、巩固拓展脱贫攻坚成果同乡村振兴有效衔接等工作中的好经验好做法。', '座谈会上，龙兆学代表县委、县政府对武都区的精心安排和热情接待表示衷心感谢，他说，武都区坚持以高质量发展统揽全局，建设过程中思路清晰、措施得力，大手笔抓旅游、大气魄抓物流，大力气抓农业产业、大思维抓巩固拓展脱贫攻坚成果，特色产业实现了持续化、链条化、整体化、融合化发展，经济社会发展取得了显著成效，让人印象深刻、很受振奋、深受启发，我们将把好思路、好做法带回去，精心谋划思考，奋力开创全面建设社会主义现代化青川新局面。', '龙兆学表示，推动区域协调联动发展是大势所趋，也是很多地方的成功经验。近年来，青川围绕“工业强县、文旅兴县、生态立县、产业富民、振兴发展”的总体思路，聚力推进“生态康养旅游名县、生态经济先行县、生态文明示范县”建设，各项事业驶入高质量发展的快车道。武都与青川地缘相邻、山水相连、人文相亲、产业相近、生态相融，具有深厚的合作基础。期待两地在更宽领域、更大范围、更深层次加强合作交流，共享区域红利、发展红利、政策红利、生态红利，共同谱写两地区域协同发展的新篇章。', '肖庆康对我县代表团一行表示热烈欢迎。他说，武都与青川山水相连、人脉相亲、文化相融，历史上一直是地邻相接的传统友好跨省相邻县（区)，群众之间有着广泛的联系和交流，在文化旅游等方面具有深厚的合作基础和先天的合作优势。建议两地以互访交流为契机，加强沟通联系，拓宽合作领域，努力成为区域协作发展典范。同时诚挚邀请青川县加入“陕甘川毗邻地区文旅环线战略联盟”，携手构建市场共拓、品牌共塑、资源共享的文旅产业新格局，全面促进区域间人才、资源、商贸等要素互动流通，实现区域经济合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>233</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>杨祖斌带领考察团到达州市达川区考察学习</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-12-11</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.cncx.gov.cn/news/show/20201211155527312.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['12月10日，县委副书记、县长杨祖斌带领考察团，到达州市达川区考察城市项目融资和规划建设管理等工作。', '考察团一行先后深入达州钢琴博物馆、九龙湖大道项目施工现场、三里坪人文生态新区、三里坪街道曹家梁社区、南坝公园等地，通过实地考察、沟通交流等方式，详细了解项目融资、城市规划、城市建设与管理、基层社区治理等情况。', '杨祖斌指出，通过实地考察，明显感受到了达川区（县）城经济的活力和发展的强劲势头，达川区在城市建设与管理、项目融资、城市规划和基层社区治理方面许多先进理念、典型经验和好的做法，对于苍溪今后的经济社会发展有着积极的借鉴作用。', '杨祖斌要求，县级相关部门要以此次考察学习为契机，进一步解放思想、更新理念、创新思路、加快步伐，真正把先进地区的好的经验和做法，努力转化为提高我县经济社会发展新动力；要加快编制城市项目投融资规划，做好投融资顶层设计，建立资产和资源注入机制，壮大投融资平台和资产规模，全力做好我县城市项目投融资工作；要进一步加强学习交流，积极探索山区新型城镇化模式，切实提升我县城市建设与管理水平，着力提升群众的幸福感和获得感，全力打造宜居宜业宜商宜游的县域中心城市。', '达川区委书记向建平，区委副书记、区长唐令彬，区委常委、常务副区长王剑先后参加座谈交流并陪同考察。副县长陆洪辉和县级相关部门负责人参加相关活动。（ 记者 詹磊 ）']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>233</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>泸州市考察团对我市禁毒工作进行考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2014-08-20</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.cngy.gov.cn/artic/show/20160720152256612.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['19日，由泸州市委常委、政法委书记李文清带领的考察团来到利州区下西坝办事处铁路社区戒毒（康复）工作站和市公安局开发区分局，对我市禁毒工作进行考察学习。市委常委、市委政法委书记邓光志陪同考察。 在下西坝办事处铁路社区戒毒（康复）工作站，考察团主要对社区吸毒人员帮扶档案、网上吸毒人员信息管控等方面进行了深入细致的学习，并通过现场交流的方式与社区禁毒专干及主要负责人就禁毒工作展开讨论，现场气氛热烈，学习氛围浓厚。 在随后的座谈会上，李文清表示，在考察学习中收获很大，广元市禁毒基础工作扎实到位，禁毒工作体系清晰、制度完备、责任到位，街道、社区禁毒专干工作认真细致，尤其是对吸毒人员帮教档案进行分类管理，值得学习和借鉴。 作为四川省首个“无毒害市”，邓光志指出，禁毒事业功在当代，利在千秋。禁毒工作首先要从预防开始，从事戒毒工作的同志们要从维护社会和谐稳定、改善和保障民生的高度，充分认识戒毒工作的重要意义，进一步增强做好戒毒工作的责任心和使命感，为把广元建设成川陕甘结合部经济文化生态强市做出新的努力。 （记者 赵敬梅）']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>233</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>剑阁考察组赴成都内江等地考察学习稻田综合种养产业</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2018-04-23</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://nyncj.cngy.gov.cn/new/show/96a09122810d4be7bfd629193f0202f3.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['为进一步推动全县稻田综合种养产业的发展，4月18日-20日，由剑阁县农业局副局长蒲新强带队，赴成都内江等地考察学习稻田综合种养产业发展情况。', '考察组先后到隆昌市全国稻渔综合种养示范基地、崇州市万亩稻渔示范基地、邛崃市稻渔示范基地、江油市贯山镇全国稻渔综合种养示范基地考察学习。考察期间，当地渔业部门毫无保留地详细介绍了发展稻田综合种养的创新发展思路、培育新型经营主体、推进标准化生产、产业延伸融合发展等经验以及发展稻田综合种养产业的经济效益分析。', '通过考察学习，考察人员开阔了眼界、学了经验、长了见识，充分认识到发展稻田综合种养产业的经济效益、社会效益和生态效益。对促进剑阁稻田综合种养产业发展、实现水产增收粮食增效、实现农业转型绿色发展、实现农业供给侧改革的创新具有非常重要的意义。', '剑阁县农业局水产渔政股部分人员、已发展和拟发展稻田综合种养产业的相关乡镇、村组干部和部分业主共28人参加了考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>233</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>考察交流促提升相互学习增友谊</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2020-12-24</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.cnzh.gov.cn/news/detail/20201225103050122.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['12月23日，青川县司法局局长郭雪源一行到昭化区对司法所规范化建设及法治文化阵地建设进行考察交流，昭化区司法局局长张远亮、副局长胡元松陪同考察。', '在清水镇清凉村、卫子镇卫子村分别查看了村级人民调解室、公共法律服务室、法律图书室、文化院坝等法治文化阵地建设；在元坝司法所，所长王俪历就工作开展情况作了详细介绍，兄弟县的同仁们认真查阅了司法所规范化档案卷宗和各类业务台账。双方就社区矫正、司法所规范化建设、法治乡村建设进行深入探讨和交流。', '通过交流，两局主要负责人表示，在今后的工作生活中，要加强感情联络，牢固树立“一个目标、一盘棋、一家人、一条心”意识，相互取长补短，共同推进基层司法行政业务高质量发展，努力为两地法治建设、平安建设和经济社会发展提供优质高效的法治保障。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>233</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>川北水上应急救援队考察团赴青岛考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2018-04-13</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://jtj.cngy.gov.cn/news/show/c2b4638bc47e4d128ce13369fa04f3e4.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['月10日至11日，广元市交通运输局党组成员、市交战办主任夏长万带领广元市交通运输指挥中心、川北水上应急救援队相关负责人赴青岛市国家深海基地管理中心、青岛市蓝色硅谷核心区进行了考察学习。', '考察组实地参观了水下机器人操作、潜水作业和船舶污染清理设备，详细了解了水下机器人和船舶污染清理设备的操作程序以及潜水作业相关原理。通过考察学习，开阔了眼界、看到了差距、明确了努力方向，坚定了信心，增强了广元市水上应急救援工作的压力感和紧迫感。', '夏长万主任强调，川北水上应急救援队要以这次考察学习为契机，认真借鉴青岛市国家深海基地潜水作业和蓝色硅谷核心区专业研发团队的好理念、好做法、好作风，创新思路举措、强化责任担当，真正把考察学习的成果转化为干事创业的强大动力，将川北水上应急救援队加快建设成为省内首屈一指的专业水上应急救援力量。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>233</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>江苏省仪征市考察组一行到我区考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2020-11-18</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.cnzh.gov.cn/news/detail/20201119174956882.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['日，江苏省仪征市人大常委会副主任徐厚江带领仪征市医保局相关同志到我区就医疗保障工作进行考察学习。昭化区人大常委会副主任夏登坤同志陪同考察。', '考察组一行先来到区医保“一站式”服务大厅，就服务大厅标准化建设等工作进行考察，详细了解了我区医保报销“一站式”结算、综合窗口柜员制等工作开展情况。在随后的座谈会上，还就医疗保障扶贫、医保征收、', '支付方式改革等工作进行了深入交流和探讨。考察组对我区的工作给予高度评价，表示要认真学习借鉴，加强交流合作，推进两地医疗保障工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>233</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>广元市美术馆赴重庆考察学习</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://swglj.cngy.gov.cn/new/show/20230712165512568.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['为深入学习贯彻落实党的二十大精神，进一步拓展美术馆开放空间，推进艺术社区建设深入开展。2023年7月7日-8日，市美术馆馆长马昭蓉、市美协主席赵勇等一行4人在四川美术学院工会主席陈德洪的陪同下先后到四川美术学院虎溪公社、四川美术学院美术馆、三合美术馆、黄桷坪艺术区、重庆美术馆等地进行实地考察学习。', '7月7日下午，在四川美术学院虎溪公社，广元市美术馆一行参观了一楼的小型展厅和艺术家工作室，认真听取了陈德洪主席关于虎溪公社基本情况的介绍，该公社挂牌成立于2011年，建筑总面积5.4万平方米，由357个工作室构成，被誉为国内最大的艺术家聚集群落，是中国西南地区最大的美术创作、美术学习、美术交流的策源地。参观过程中进行了深入交流与探讨，也为广元文化艺术基地建设提供很好借鉴。', '随后来到四川美术学院美术馆，由负责公教活动的王文娟老师介绍了《从馆藏出发：文脉传薪——2023四川美术学院美术馆馆藏作品展》相关情况，并与她深入交流了公教活动策划方面经验，以及探讨今后两馆合作方向。', '接着来到四川美术学院中国画与书法艺术学院，与国书院党总支书记王劲以及国书院党总支副书记、重庆市美协副秘书长肖志进行了座谈，马昭蓉希望加强校馆合作，诚挚邀请国书院的老师们到广元来举办展览、讲座、学术交流及采风写生等活动。', '在陈德洪主席的带领下来到坐落于山明水秀、人文荟萃的三河艺术村三合美术馆，该馆集艺术展览、艺术创作、学术研究、社会公教、艺术研学、成人美学于一体。在荣占国馆长的导览下参观了展厅、文创区、研学区域、国学室、休闲区域等。参观后马昭蓉认为，三合美术馆既为艺术家搭建展览展示平台、创作交流与分享平台、学术交流平台，又为美育公益事业和乡村振兴作出重要贡献，愿意今后与三合美术馆加强合作，学习借鉴乡村艺术社区美术馆打造的成功经验。', '7月8日还考察了黄桷坪艺术区、重庆美术馆，以及沙坪坝磁器口的文化旅游业态及古镇绘画。', '随着艺术社区、艺术乡村建设在各地城乡的不断探索和美术资源的进一步下沉，美术对社会经济发展所发挥的作用也在被重新认识。此次考察也为广元的展览策划、艺术社区、艺术乡村建设、志愿者队伍建设提供了很好的经验借鉴，让我们用艺术点亮社区、点亮乡村，助力广元城市空间品质提升，促进广元的乡村振兴发展。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>233</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>我市组织蔬菜大户赴眉山考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2019-07-22</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://nyncj.cngy.gov.cn/new/show/aa028014cfd147acbaca023d72cff022.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['应四川吉香居食品有限公司邀请，广元市农业农村局与利州区农业农村局组织全市蔬菜种植大户一行30人，于7月18日至19日赴眉山市吉香居总公司，考察泡菜原料生产基地和泡菜加工车间。一行人参观了眉山吉香居总公司生产基地、蔬菜加工车间，并与公司总经理汪维龙、副总经理姚建刚、供应部经理助理刘继池等进行了座谈。吉香居公司就合同、栽培技术、原料蔬菜收购程序等方面一一解答了种植大户的疑问，并表示近期将组织一次原料蔬菜种植技术培训。', '本次考察学习，促进了广元市蔬菜种植大户和广元市吉香居食品食品有限公司的交流沟通，增强了相互合作的信心，对推动广元市泡菜原料基地建设与蔬菜精深加工具有重要的意义。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>233</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>利州中专年寒假赴昆明宜宾考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://jy.cngy.gov.cn/new/show/20240131172640835.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为进一步推动学校高质量发展，提升学校“三名工程”项目建设质效，加强校际间交流合作，实现优质资源共享，提升学校教职工队伍干事创业能力，1月27日至1月30日期间，在学校党委副书记、校长贾相成的带队下，学校班子成员、中层干部、教职工代表共计30人赴昆明、宜宾开展为期4天的考察学习。', '学校考察队伍先后赴昆明市官渡区职业高级中学、四川省宜宾市南溪职业技术学校、四川省江安县职业技术学校、宜宾市职业技术学校开展参观学习，并从党建引领、教育教学、德育管理、专业建设、职教高考、产教融合、实习实训、信息化建设、行政后勤等方面开展了深入的交流座谈。学校考察队伍还进入西南联大博物馆开展党性教育活动，通过深切感受西南联大在抗战时期的艰苦办学历程，进一步提升教职工迎难而上、担当作为的奋斗精神。', '贾相成在考察学习总结会上指出，一是要提高政治站位，始终坚持党对教育事业的全面领导，干部队伍要充分发挥先锋模范作用。二是要突出考察学习实效，充分思考和总结，取长补短，提出适合学校实际情况的发展建议，为学校高质量发展出谋划策。三是加强考察成果运用，强化工作落地落实，推动学校各项工作实现新的突破。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>233</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>赴外考察谋发展交流学习促提升</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-01-14</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.lzq.gov.cn/news/show/20220117091230676.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['为进一步增强对外合作交流，做实做大教育板块，1月10日，广元市利元产业发展集团有限公司总经理刘志胜带队赴贵州考察教育投资项目。集团公司副总经理段雄伟、冉浩、风控部工作人员参与考察。陶行知民办教育分会秘书长舒仁洪、兴仁市致远中学负责人陪同考察。', '上午，兴仁市政府常务副市长刘玻会见了广元市利元产业发展集团有限公司一行，对考察团的到来表示热烈欢迎，并组织召开座谈会，双方针对项目背景、当地教育政策做了有关介绍、讨论。广元市利元产业发展集团有限公司先是对业务开展和项目背景情况作了简要介绍，还对当地开展职业教育与学前教育投资的营商环境与配套政策进行了详细了解。', '刘玻副市长表示，广元市利元产业发展集团有限公司在产业发展、工程建设、教育投资方面有良好经营和管理模式，再次赴我市考察，深刻感受到了合作的真诚与信心，投资兴仁市职业教育与学前教育前景良好，我市将组织相关部门实地调研，积极协调同步推进手续的办理和解决用地问题。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>233</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>赴葛洲坝集团西南分公司考察学习</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-01-21</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.lzq.gov.cn/news/show/20220125091358801.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['1月14日，广元市利元产业发展集团有限公司董事长李建、总经理刘志胜带队赴葛洲坝集团西南分公司考察学习及对接项目，副总经理段雄伟、财务总监周丽青及相关部门负责人参加。上午8：30分，葛洲坝集团西南分公司副总经理赵传明、总经理助理张亮及相关部门与我集团公司一行座谈交流，对有关问题进行了深入探讨。', '会上，李建董事长先是对利元产业集团公司业务板块和项目基本情况作了简要介绍。随后，双方就渔洞河水库综合开发利用、秦川大峡谷乡村振兴等项目以及如何合理合法合规开展投资合作以及后期的资产、税收、运营管理、利润分配进行了深入交流和讨论。双方一致认为以股权方式进入合作，早日签订框架协议，提前订立进入和退出机制，以渔洞河水库建设项目为切入口，分步开展广元利州项目合作。', '赵传明副总经理和张亮总助同时表示，广元市利元产业发展集团有限公司在产业发展、农业水利建设开发、文旅融合发展等方面有良好经营和管理模式，今天赴我集团考察，深刻感受到了合作的诚意，双方都为国企，葛洲坝集团愿意主动承担起社会责任，积极与利元集团商议谋划，早日签订合作框架协议，有力有序推动合作进程，实现互利共赢。同时，为广元利州乡村振兴贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>233</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>剑阁县民政局考察团赴南充市殡管处考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2021-07-16</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://mzj.cngy.gov.cn/new/show/20210716115440332.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['为解放基层群众思想观念，加快殡葬事业改革，7月13日，剑阁县民政局组织率领考察团一行75人赴南充市殡仪馆考察学习，市殡管处处长赵炳全带领处班子成员陪同考察。下寺镇政府、下寺镇二龙村村干部及群众代表、县委政法委、县自然资源局、县生态环境局、县住建局、县林业局、县退役军人事务局、县民政局、县殡仪馆等相关部门领导及业务人员随团考察学习。', '考察团实地参观了南充市殡仪馆内的时间广场、服务中心、风雨走廊、火化车间、公墓思孝广场、大宝山陵园等场所，赵炳全就建筑设计、馆区打造、经营服务、企业文化、环境保护等方面向考察团做了详细介绍。', '在随后召开的座谈会上，赵炳全就为什么建殡仪馆、怎么将殡仪馆建设好作了分享，他指出，一是殡葬事业事关国家基本政策，关乎民众切身利益，是民生工程、良心工程、“菩萨”工程，把殡仪馆建设好能充分实现“上为政府分忧，下为百姓解愁”的职能职责。二是场馆建设要温暖人。殡仪行业是一个讳莫如深的行业，要高起点规划、高标准设计、高质量建设，通过合理布局、优化环境、完善配套、注入文化等，让前来治丧的群众有一种“事前，毛骨悚然，忐忑不安；事后，如释重负，心态平和”的感觉。', '剑阁县民政局党组书记、局长程元军对市殡管处的热情接待表示感谢。他表示，来南充市殡仪馆考察学习收获颇丰、获益匪浅，南充市殡仪馆独特的建筑设计、先进的服务理念、完善的硬件设施、浓厚的文化氛围令人印象深刻，考察团将以此次考察为契机，把学到的好理念、好做法融入到剑阁县殡葬事业改革中去，保障基本民生福祉，满足群众最基本的丧葬需求。参加座谈会的部门就殡仪服务项目建设相关问题现场提问交流。二龙村干部表示，回去后一定将新型的殡葬理念传达给更多群众，统一干部群众思想，争取群众最大支持和理解，积极推动剑阁县殡葬事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>233</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>资阳市纪委考察团到马鹿镇考察学习阳光村务平台工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2019-03-15</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.cnqc.gov.cn/newdetail.aspx?id=20190318112922416</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['王海波一行先是在镇党委书记唐艳的介绍下了解了“阳光村务”微信平台的使用方法和具体操作流程，随后又通过多媒体演示具体展示了镇、村两级微信公众平台关于惠民政策、项目公示、财务公开等方面的公示公开情况。', '马丽向考察团介绍了马鹿镇“阳光村务”微信公示平台的优势，马丽指出，马鹿镇“阳光村务”平台建设突破了“一张黑板打天下”的传统公示传统公示形式，突破了空间、时间、范围等局限，达到了监督、信誉、效率三个方面的提升，有力地推动了基层各项工作的开展，尤其是村级工作取得了长足进步。', '马鹿镇的“阳光村务”平台工作得到了资阳市纪委考察团的高度评价，王海波认为，马鹿镇“阳光村务”平台工作小资金起到了大作用，有效攻克了村级工作难题，真正起到了监督约束作用，提升了农村党风廉政水平，保障了农村经济社会的和谐稳定，值得学习和效仿。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>233</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>雅安市雨城区考察团赴青川县考察学习林下经济</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-03-28</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.cnqc.gov.cn/newdetail.aspx?id=20240328105503590</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['3月26日至27日，雅安市雨城区林业局党组书记、局长姚建新一行到青川县考察学习林下经济。青川县林业局党组书记、局长卢成建参加考察并介绍相关情况。', '考察团先后前往青川九药麝业开发有限公司、青溪镇箐桥林场林下中药材基地、房石镇林下中药材基地、蒿溪回族乡茶叶加工厂等地。详细了解了林下养殖林麝，林下种植黄连、淫羊藿，林下茶精深加工等方面举措、思路及成效。', '座谈会上，双方就林下种养的政策扶持、发展前景、市场效益、精深加工、推广宣传等方面进行了深入交流。', '卢成建表示，本次考察是对青川县林下经济发展的充分肯定。近年来，青川县在保护森林资源的基础上，充分发挥林荫空间优势，提高了林地综合效益、增加了林业附加值、拓宽了产业发展空间。2023年，全县新建黄连、淫羊藿、茯苓等林下经济示范基地2万亩，新增中药材有机认证面积500亩，存栏林麝300余只，真正实现了经济效益、生态效益、社会效益“三赢”。', '姚建新表示，青川县林下经济发展有优势、有特色、有成效，值得学习借鉴。此次考察为雨城区发展林下经济提供了良好思路，将认真学习借鉴青川县先进经验和做法，进一步发展壮大雨城区林下经济，为农民增收致富开辟新路径。同时希望以此次考察为契机，建立两地长效合作机制，共谋长远发展，齐心协力探索“林下经济”发展新业态，助推乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>233</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>巴中农机监理所来苍溪考察学习</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2020-04-02</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://nyncj.cngy.gov.cn/new/show/20200402105404657.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['3月31日，巴中市农业农村局副局长毛晨宇带领巴中农机监理站一行，来苍溪县考察学习农机标准化考试场地建设。', '巴中考察组先后参观体验了苍溪县无纸化考试室、标准化考试场地和农机安全检测设备等场所，并就农机安全生产、标准化考试场地建设等方面与县农机监理负责同志进行了交流探讨，对苍溪县农机安全监理工作，特别是农机监理设备建设、农机规范化管理等方面取得的成绩给予了高度评价,双方表示今后要不断加强学习和交流，取长补短，共同进步，为提高农机安全监理水平，确保农机安全生产打下坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>233</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>安康市市政园林处来广考察学习</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2020-11-06</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://jsj.cngy.gov.cn/new/show/018e7c31adb845f5a1d579a93158a067.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['11月5日，安康市市政园林处、住建技术服务中心一行7人来广元市考察学习城市园林绿化养护管理工作。', '会上，安康市市政园林处考察组与广元城市园林绿化事务中心针对城市园林绿化养护、公园管理、园林建设工作方面进行了交流，并对城市园林绿化养护费用定额标准及城市园林绿化精细化管理等方面进行了交流探讨。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>233</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>张哲通副局长率队赴内江遂宁考察学习</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021-03-29</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://jjhzj.cngy.gov.cn/new/show/20210329093843573.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['为学习借鉴内江、遂宁在外资工作和市场化、社会化招商工作方面的先进经验及做法，3月23-24日，局党组成员、副局长张哲通率国际合作科（外资管理科）科长、招商中心主任赴内江市经合局和遂宁市经合局考察学习。', '在内江，张哲通一行与内江市经合局党组书记、局长李勇均，局党组成员、机关党委书记钟勇及相关科室负责人进行座谈交流。李勇均对张哲通一行的到来表示热烈欢迎，并详细介绍内江市经合局机构设置、外资招引及市场化、社会化招商等情况。', '在遂宁，遂宁市经合局党组成员、市产业促进中心主任廖镔陪同张哲通一行参观遂宁市规划馆。随后，廖镔，遂宁市经合局党组成员、副局长刘静及各科室负责人与张哲通一行围绕外资工作和市场化、社会化招商工作进行坦诚深入的座谈交流。（图文：刘辉 审核：张哲通）']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>233</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>全市医保系统干部职工来旺考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.scgw.gov.cn/detail.aspx?id=20220530160030800</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['5月26日，市医保局组织各县区医保局相关人员，深入到我县东河镇便民（医保）服务中心考察学习。县政府副县长夏静陪同考察。', '活动中，相关人员边听边看，边看边问，详细了解我县医疗保障基层服务示范点创建、乡镇服务体系建设方面的基本情况和主要做法。市医保局党组书记梁元昊指出，在县委县政府的高度重视下，旺苍县医保局主动对标上级要求、聚焦群众期盼，有力有序推动医保服务体系连镇通村，乡镇医保服务体系建设成效显著、亮点纷呈，特别是东河镇作为全市唯一乡镇，成功创建为全国首批医疗保障基层服务示范点并顺利通过省级验收公示，值得其他县区学习借鉴、大力推广。', '近年来，县医保局抓住乡镇行政区划调整改革的有利时机，主动强化对上衔接、横向统筹和督促指导，全面实现乡镇医保经办服务体系全覆盖建设。全县23个乡镇全部设置“医疗保障服务中心”，核定人员编制51个，实现有专门机构、有专人专编。综合查询、两病认定备案等20项高频医保服务事项和权限下放至乡镇，参保登记、查询、变更等5项事项下放到村（社区），实现70%以上的医保业务在镇村即可办结，极大降低群众办事成本。印发《医疗保障经办服务相关制度（试行）》等系列文件，统一服务标准，强化业务管理，医保服务标准化规范化水平稳步提升。我县总结形成的“总量控制，结构调整”的经办服务体系建设经验得到国家医保局主要领导胡静林肯定性签批，国家医保局医保事业中心副主任隆学文、省医保局副局长曾宏及市内各县区医保局等先后来旺调研指导、考察学习。', '下一步，县医保局将联合县行政审批局等单位，总结提炼好经验好做法，持续推进其余乡镇医保服务大厅标准化建设，并贯彻落实好市委市政府“村能办”“家门办”便民服务体系建设系列部署，高标准高质量打造“1+23+257”县乡村三级医保经办服务体系。（撰稿人：刘有辉；审核人：向丹）']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>233</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>旺苍县司法系统到虎跳镇考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2019-04-22</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.cnzh.gov.cn/news/detail/20190422165734202.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['2019年4月19日上午，广元市旺苍县司法局副局长陈杰带领旺苍县司法局机关干部、乡镇司法所负责人等一行24人来虎跳镇考察学习司法行政工作和司法所规范化建设。', '考察学习组先后听取了虎跳镇党委、虎跳司法所相关负责人介绍的司法行政、司法所规范化建设等工作，实地参观了司法所阵地建设、软件资料归档等，对依法治理等工作现场进行了交流学习。（尹安平、祝林 编辑）']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>233</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>刘襄渝率队赴广元经开区考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2019-06-15</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.lzq.gov.cn/news/show/b12b9c271e954219ab10bad739740510.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['6月14日，区委书记刘襄渝率队赴广元经济技术开发区考察学习项目投资、产业发展等工作。', '经开区党工委书记吴勇，党工委副书记、管委会主任罗凌云陪同考察。区人大常委会主任陈内召参加考察。', '思想在交流中解放，观念在学习中更新。考察组一行先后来到了经开区劳特巴赫精酿啤酒在建项目、川陕甘国际农产品（物流）批发交易中心在建项目、林丰铝电项目、瑞昊微电子公司、娃哈哈公司等地，实地考察,现场体验,对标学习。', '劳特巴赫精酿啤酒项目是近年来经开区招商引资的又一力作。该项目去年5月开工建设，经过建设者们一年的奋战，一个年产20万吨劳特巴赫精酿啤酒项目已基本建成，预计在今年7月前全面竣工，创造了令人惊叹的“经开区速度”。大家表示，经开区抓项目尤其是大项目建设，敢想、敢闯、敢干的劲头和作风，值得我们认真学习。', '取经之行，深受震撼。经开区坚持产业集群化、资源集约化、环境和谐化、服务专业化的发展思路，在重点项目建设上的高起点、大投入，在经济社会发展中探索出的成功经验和做法,给考察组成员留下了深刻印象和启迪。一路看,一路思，大家纷纷表示，既认识到了差距,感受到了压力,也增强了干事创业的责任感,增强了推进发展的信心和决心。', '刘襄渝表示，经开区多年来积极探索符合自身客观规律、具有鲜明特色的开发区发展之路，发展思路清晰、产业定位准确，增长势头强、发展潜力大，各种新观念、新路径、新方式，都值得深入学习、梳理借鉴。考察组成员要对标一流，认真学习经开区在项目投资、招商引资、工业园区建设等方面的先进经验做法，用新思想、新方法、新举措，扎实开展“九项工作大比武”和“九个争先、三年攀高”攻坚行动，加快推动利州经济社会高质量发展。同时，要找准切入点，进一步深化拓展交流合作领域，共同开创更加美好的未来。', '考察中，吴勇向考察组介绍了经开区的基本概况以及园区企业建设发展等情况，并希望两地进一步加强交流与合作，特别是在产业发展、基础设施建设等方面加强联系合作，推动两地经济社会发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>233</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>朝天区考察团来苍溪县考察学习政务公开工作</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.cncx.gov.cn/news/show/20230524181027315.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['考察团先后前往东青镇东光村、县政务大厅等地，通过现场查看、相互交流等方式，详细了解我县政务公开工作的经验与做法。', '考察团对我县政务服务和政务公开工作给予高度评价，认为我县在政务服务各项工作上思路明确、方法创新。同时，希望两地加强互动，取长补短，共同促进政务公开工作更好地开展。（记者 莫正楠）']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>233</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>剑阁县考察组到青川县大唐家河旅游区考察学习</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-01-04</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.cnqc.gov.cn/newdetail.aspx?id=20230105091115419</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['2023年1月3日，剑阁县委常委、宣传部部长、总工会主席廖兴泉带领文旅系统、国资系统和相关乡镇，一行赴青川县大唐家河旅游区考察学习精品民宿经验。县委常委、宣传部部长、总工会主席佘锦，县政府副县长贺俊杰，县相关单位和青溪镇负责人陪同。', '廖兴泉一行先后参观了大唐家河旅游区游客中心、阴平村民宿、唐家河景区、森氧美墅酒店、唐家河国际大酒店、唐家河演艺中心、青溪古城，现场听取了青川县大唐家河旅游区建设经验。随后，在青溪镇会议室召开了交流座谈会，并就精品民宿建设过程中遇到的难题进行了详细交流和经验分享。', '廖兴泉表示：青川县大唐家河旅游区建设工作很实在、很到位，从县委、县政府重视到建设、管理、运营等方面，都有可以复制和借鉴的地方，本次考察和学习收获颇丰。']</t>
         </is>
